--- a/data/trans_orig/P1805_2016_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1805_2016_2023-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>8407</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3661</v>
+        <v>3706</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15613</v>
+        <v>16343</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01245827165872739</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005424732422206114</v>
+        <v>0.005492385545231498</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02313690380869274</v>
+        <v>0.02421838942039886</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -763,19 +763,19 @@
         <v>18691</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10945</v>
+        <v>11068</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29565</v>
+        <v>30419</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02777889601799605</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01626632446824207</v>
+        <v>0.01644901116044572</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04394001218342679</v>
+        <v>0.04521055836171716</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -784,19 +784,19 @@
         <v>27098</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17765</v>
+        <v>17914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40427</v>
+        <v>40508</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02010743702001434</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01318200011539158</v>
+        <v>0.0132932387002865</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02999811680075461</v>
+        <v>0.03005861953377319</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>666393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>659187</v>
+        <v>658457</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>671139</v>
+        <v>671094</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9875417283412726</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9768630961913072</v>
+        <v>0.9757816105796012</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9945752675777937</v>
+        <v>0.9945076144547685</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>650</v>
@@ -834,19 +834,19 @@
         <v>654148</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>643274</v>
+        <v>642420</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>661894</v>
+        <v>661771</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9722211039820039</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9560599878165735</v>
+        <v>0.9547894416382828</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9837336755317582</v>
+        <v>0.9835509888395543</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1294</v>
@@ -855,19 +855,19 @@
         <v>1320541</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1307212</v>
+        <v>1307131</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1329874</v>
+        <v>1329725</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9798925629799856</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9700018831992453</v>
+        <v>0.9699413804662269</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9868179998846083</v>
+        <v>0.9867067612997136</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>16424</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10229</v>
+        <v>10195</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26464</v>
+        <v>27159</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01606379300279404</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01000415973117858</v>
+        <v>0.009971549910747666</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02588337792682307</v>
+        <v>0.02656312254299247</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -980,19 +980,19 @@
         <v>34487</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23485</v>
+        <v>23225</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48653</v>
+        <v>47881</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03306762488638929</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02251837585527667</v>
+        <v>0.02226936201459978</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04665147236675021</v>
+        <v>0.04591098239454854</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -1001,19 +1001,19 @@
         <v>50911</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38361</v>
+        <v>36566</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67573</v>
+        <v>64189</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02465002241942891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01857362640654271</v>
+        <v>0.01770452706852638</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03271769931565494</v>
+        <v>0.03107897324490682</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1006007</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>995967</v>
+        <v>995272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1012202</v>
+        <v>1012236</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.983936206997206</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9741166220731771</v>
+        <v>0.9734368774570072</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9899958402688214</v>
+        <v>0.9900284500892523</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>946</v>
@@ -1051,19 +1051,19 @@
         <v>1008426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>994260</v>
+        <v>995032</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1019428</v>
+        <v>1019688</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9669323751136107</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9533485276332498</v>
+        <v>0.9540890176054513</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9774816241447234</v>
+        <v>0.9777306379854003</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1881</v>
@@ -1072,19 +1072,19 @@
         <v>2014433</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1997771</v>
+        <v>2001155</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2026983</v>
+        <v>2028778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9753499775805711</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9672823006843452</v>
+        <v>0.9689210267550932</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9814263735934575</v>
+        <v>0.9822954729314737</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>10476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4966</v>
+        <v>5153</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18411</v>
+        <v>19148</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01379208370901625</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006538115493821229</v>
+        <v>0.006784336122051187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02423947760693856</v>
+        <v>0.02520955289379603</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1197,19 +1197,19 @@
         <v>22967</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14634</v>
+        <v>14459</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33886</v>
+        <v>34411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02925721685848319</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01864181476795348</v>
+        <v>0.01841824948940006</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04316669897089766</v>
+        <v>0.0438348940871502</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -1218,19 +1218,19 @@
         <v>33443</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22440</v>
+        <v>23927</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45872</v>
+        <v>46687</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02165210416363255</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01452839313183358</v>
+        <v>0.01549086594362247</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02969929927028146</v>
+        <v>0.03022648489132807</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>749076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>741141</v>
+        <v>740404</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754586</v>
+        <v>754399</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9862079162909837</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9757605223930615</v>
+        <v>0.974790447106204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9934618845061787</v>
+        <v>0.9932156638779488</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>714</v>
@@ -1268,19 +1268,19 @@
         <v>762044</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>751125</v>
+        <v>750600</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>770377</v>
+        <v>770552</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9707427831415169</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9568333010291024</v>
+        <v>0.9561651059128499</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9813581852320465</v>
+        <v>0.9815817505105999</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1400</v>
@@ -1289,19 +1289,19 @@
         <v>1511120</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1498691</v>
+        <v>1497876</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1522123</v>
+        <v>1520636</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9783478958363675</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9703007007297186</v>
+        <v>0.9697735151086719</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9854716068681665</v>
+        <v>0.9845091340563775</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>25756</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16684</v>
+        <v>17269</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37901</v>
+        <v>37564</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02747140424013242</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01779491066977085</v>
+        <v>0.01841881716692494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04042530939102598</v>
+        <v>0.04006501566827608</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1414,19 +1414,19 @@
         <v>54794</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40833</v>
+        <v>39872</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73023</v>
+        <v>72593</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05249573918806035</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03912059381802181</v>
+        <v>0.03819986191610114</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0699599476701382</v>
+        <v>0.0695478068390197</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -1435,19 +1435,19 @@
         <v>80550</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63284</v>
+        <v>62385</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99584</v>
+        <v>99948</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04065429883259094</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0319398407550819</v>
+        <v>0.03148623936692952</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05026091497216971</v>
+        <v>0.05044425545337175</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>911811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>899666</v>
+        <v>900003</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>920883</v>
+        <v>920298</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9725285957598676</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.959574690608974</v>
+        <v>0.9599349843317238</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9822050893302291</v>
+        <v>0.9815811828330749</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>911</v>
@@ -1485,19 +1485,19 @@
         <v>988985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>970756</v>
+        <v>971186</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1002946</v>
+        <v>1003907</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9475042608119396</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9300400523298614</v>
+        <v>0.93045219316098</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9608794061819782</v>
+        <v>0.9618001380838986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1818</v>
@@ -1506,19 +1506,19 @@
         <v>1900796</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1881762</v>
+        <v>1881398</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1918062</v>
+        <v>1918961</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.959345701167409</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.94973908502783</v>
+        <v>0.9495557445466281</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.968060159244918</v>
+        <v>0.9685137606330703</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>61063</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46781</v>
+        <v>46892</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78981</v>
+        <v>79159</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01798961416410113</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01378210242144679</v>
+        <v>0.01381486521932425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02326835330569722</v>
+        <v>0.02332095191740951</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -1631,19 +1631,19 @@
         <v>130939</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>109804</v>
+        <v>109774</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>157834</v>
+        <v>158471</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03694089890581467</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03097832295431817</v>
+        <v>0.03096975828224681</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04452888334923696</v>
+        <v>0.04470853205021531</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>176</v>
@@ -1652,19 +1652,19 @@
         <v>192002</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164497</v>
+        <v>163084</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>220810</v>
+        <v>221270</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02767035590064896</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02370652287993969</v>
+        <v>0.02350293450290672</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03182202900836666</v>
+        <v>0.03188838294919832</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3333287</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3315369</v>
+        <v>3315191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3347569</v>
+        <v>3347458</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9820103858358988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9767316466943028</v>
+        <v>0.9766790480825905</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9862178975785532</v>
+        <v>0.9861851347806757</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3221</v>
@@ -1702,19 +1702,19 @@
         <v>3413603</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3386708</v>
+        <v>3386071</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3434738</v>
+        <v>3434768</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9630591010941854</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.955471116650763</v>
+        <v>0.9552914679497847</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9690216770456819</v>
+        <v>0.9690302417177532</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6393</v>
@@ -1723,19 +1723,19 @@
         <v>6746890</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6718082</v>
+        <v>6717622</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6774395</v>
+        <v>6775808</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9723296440993511</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9681779709916331</v>
+        <v>0.9681116170508012</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9762934771200601</v>
+        <v>0.9764970654970933</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>17583</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10466</v>
+        <v>10375</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29360</v>
+        <v>30513</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02545625367371422</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01515196668476407</v>
+        <v>0.01502018368960544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04250728636178443</v>
+        <v>0.04417612584741277</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -2088,19 +2088,19 @@
         <v>19175</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13393</v>
+        <v>12746</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26306</v>
+        <v>26181</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02615493224983764</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01826900186760672</v>
+        <v>0.01738581243695734</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03588286022262628</v>
+        <v>0.03571226262203676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -2109,19 +2109,19 @@
         <v>36757</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26624</v>
+        <v>27014</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50342</v>
+        <v>48687</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02581599682060327</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01869877956061567</v>
+        <v>0.01897283612553537</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03535694169068118</v>
+        <v>0.03419437932064882</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>673127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>661350</v>
+        <v>660197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>680244</v>
+        <v>680335</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9745437463262858</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9574927136382158</v>
+        <v>0.9558238741525875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9848480333152361</v>
+        <v>0.9849798163103947</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1204</v>
@@ -2159,19 +2159,19 @@
         <v>713938</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>706807</v>
+        <v>706932</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>719720</v>
+        <v>720367</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9738450677501623</v>
+        <v>0.9738450677501624</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.964117139777374</v>
+        <v>0.9642877373779637</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9817309981323936</v>
+        <v>0.9826141875630428</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1919</v>
@@ -2180,19 +2180,19 @@
         <v>1387066</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1373481</v>
+        <v>1375136</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1397199</v>
+        <v>1396809</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9741840031793967</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9646430583093186</v>
+        <v>0.9658056206793513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9813012204393844</v>
+        <v>0.9810271638744645</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>24000</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14074</v>
+        <v>12416</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38938</v>
+        <v>35836</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02288034032106192</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01341778871900678</v>
+        <v>0.01183720665513428</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0371217290994795</v>
+        <v>0.03416483256921699</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -2305,19 +2305,19 @@
         <v>37952</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28791</v>
+        <v>28256</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50286</v>
+        <v>50136</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03544158056773451</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02688595995526038</v>
+        <v>0.02638673262393995</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04695941625050141</v>
+        <v>0.04681981644399968</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -2326,19 +2326,19 @@
         <v>61952</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47992</v>
+        <v>48127</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80631</v>
+        <v>81255</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02922590981783204</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02264022928175367</v>
+        <v>0.02270418965627484</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03803777563625355</v>
+        <v>0.03833220349008775</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>1024917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1009979</v>
+        <v>1013081</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1034843</v>
+        <v>1036501</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9771196596789381</v>
+        <v>0.9771196596789382</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9628782709005206</v>
+        <v>0.965835167430783</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9865822112809933</v>
+        <v>0.9881627933448657</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1462</v>
@@ -2376,19 +2376,19 @@
         <v>1032886</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1020552</v>
+        <v>1020702</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1042047</v>
+        <v>1042582</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9645584194322656</v>
+        <v>0.9645584194322657</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9530405837494986</v>
+        <v>0.9531801835560001</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9731140400447397</v>
+        <v>0.9736132673760599</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2408</v>
@@ -2397,19 +2397,19 @@
         <v>2057803</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2039124</v>
+        <v>2038500</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2071763</v>
+        <v>2071628</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.970774090182168</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9619622243637466</v>
+        <v>0.9616677965099124</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9773597707182463</v>
+        <v>0.9772958103437248</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>29116</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18085</v>
+        <v>18239</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46841</v>
+        <v>44577</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03625585487431129</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02251949309877383</v>
+        <v>0.02271126250608308</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05832725066772768</v>
+        <v>0.05550846550189726</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -2522,19 +2522,19 @@
         <v>42065</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30689</v>
+        <v>28929</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58173</v>
+        <v>57865</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05182509768782324</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03780965424637892</v>
+        <v>0.03564195820682598</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07167133980111504</v>
+        <v>0.0712914679052481</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -2543,19 +2543,19 @@
         <v>71181</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53449</v>
+        <v>55974</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91758</v>
+        <v>96626</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04408188657001984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03310099480493024</v>
+        <v>0.03466425878472304</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05682527344780504</v>
+        <v>0.05984034582272543</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>773957</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>756232</v>
+        <v>758496</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>784988</v>
+        <v>784834</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9637441451256886</v>
+        <v>0.9637441451256888</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9416727493322727</v>
+        <v>0.9444915344981026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9774805069012262</v>
+        <v>0.9772887374939168</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>999</v>
@@ -2593,19 +2593,19 @@
         <v>769598</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>753490</v>
+        <v>753798</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>780974</v>
+        <v>782734</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9481749023121768</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.928328660198885</v>
+        <v>0.9287085320947519</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9621903457536209</v>
+        <v>0.9643580417931741</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1655</v>
@@ -2614,19 +2614,19 @@
         <v>1543555</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1522978</v>
+        <v>1518110</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1561287</v>
+        <v>1558762</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9559181134299801</v>
+        <v>0.9559181134299803</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.943174726552195</v>
+        <v>0.9401596541772744</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9668990051950698</v>
+        <v>0.9653357412152769</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>46466</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34097</v>
+        <v>32478</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64933</v>
+        <v>63519</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04693289091991406</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03443939538387589</v>
+        <v>0.03280389605650114</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06558453312001876</v>
+        <v>0.06415647276276848</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -2739,19 +2739,19 @@
         <v>58001</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45664</v>
+        <v>45616</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73461</v>
+        <v>73420</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05186283609018</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04083158630908515</v>
+        <v>0.04078851129652405</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06568693588670119</v>
+        <v>0.06565010437443496</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>115</v>
@@ -2760,19 +2760,19 @@
         <v>104468</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86221</v>
+        <v>86048</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>128836</v>
+        <v>126315</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04954785358261808</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04089369826148814</v>
+        <v>0.04081174320834639</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06110552177545076</v>
+        <v>0.05990999925544594</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>943596</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>925129</v>
+        <v>926543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>955965</v>
+        <v>957584</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.953067109080086</v>
+        <v>0.9530671090800859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9344154668799804</v>
+        <v>0.9358435272372319</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.965560604616124</v>
+        <v>0.9671961039434992</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1488</v>
@@ -2810,19 +2810,19 @@
         <v>1060356</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1044896</v>
+        <v>1044937</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1072693</v>
+        <v>1072741</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9481371639098201</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9343130641132988</v>
+        <v>0.934349895625565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.959168413690915</v>
+        <v>0.9592114887034763</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2452</v>
@@ -2831,19 +2831,19 @@
         <v>2003951</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1979583</v>
+        <v>1982104</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2022198</v>
+        <v>2022371</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9504521464173821</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9388944782245492</v>
+        <v>0.940090000744554</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9591063017385119</v>
+        <v>0.9591882567916533</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>117165</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91860</v>
+        <v>94361</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>145491</v>
+        <v>146908</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03316528034664142</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0260022645803526</v>
+        <v>0.02671027860354879</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04118333009584633</v>
+        <v>0.04158450212502518</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>209</v>
@@ -2956,19 +2956,19 @@
         <v>157192</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>136875</v>
+        <v>132763</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>181722</v>
+        <v>180921</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04209791131418508</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03665668370703861</v>
+        <v>0.0355555203766823</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04866720368316724</v>
+        <v>0.04845278414953993</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>304</v>
@@ -2977,19 +2977,19 @@
         <v>274357</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>241470</v>
+        <v>242499</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>311414</v>
+        <v>313084</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0377552635361291</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03322955044249112</v>
+        <v>0.0333710686419047</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04285481048967529</v>
+        <v>0.043084504302183</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3415597</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3387271</v>
+        <v>3385854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3440902</v>
+        <v>3438401</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9668347196533585</v>
+        <v>0.9668347196533587</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9588166699041536</v>
+        <v>0.9584154978749748</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9739977354196475</v>
+        <v>0.9732897213964511</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5153</v>
@@ -3027,19 +3027,19 @@
         <v>3576778</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3552248</v>
+        <v>3553049</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3597095</v>
+        <v>3601207</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9579020886858149</v>
+        <v>0.9579020886858147</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9513327963168327</v>
+        <v>0.9515472158504601</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9633433162929614</v>
+        <v>0.9644444796233176</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8434</v>
@@ -3048,19 +3048,19 @@
         <v>6992375</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6955318</v>
+        <v>6953648</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7025262</v>
+        <v>7024233</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9622447364638709</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9571451895103248</v>
+        <v>0.9569154956978169</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.966770449557509</v>
+        <v>0.9666289313580954</v>
       </c>
     </row>
     <row r="18">
